--- a/document/唐晓东-CodeMan-理财精灵开发进度表.xlsx
+++ b/document/唐晓东-CodeMan-理财精灵开发进度表.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22943" windowHeight="9947"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22944" windowHeight="9948"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="49">
   <si>
     <t>产品</t>
   </si>
@@ -189,167 +189,21 @@
   <si>
     <t>里程碑:30</t>
   </si>
+  <si>
+    <t>结束</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -365,202 +219,22 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -568,253 +242,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -833,58 +265,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1175,37 +563,37 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A10" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="7" width="15.7777777777778" customWidth="1"/>
-    <col min="8" max="8" width="29.8888888888889" customWidth="1"/>
+    <col min="1" max="7" width="15.77734375" customWidth="1"/>
+    <col min="8" max="8" width="29.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:6">
+    <row r="1" spans="1:8" ht="15" customHeight="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" customHeight="1" spans="2:8">
+    <row r="2" spans="1:8" ht="15" customHeight="1">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -1220,12 +608,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" customHeight="1" spans="1:1">
+    <row r="3" spans="1:8" ht="15" customHeight="1">
       <c r="A3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" customHeight="1" spans="2:8">
+    <row r="4" spans="1:8" ht="15" customHeight="1">
       <c r="B4" t="s">
         <v>6</v>
       </c>
@@ -1239,7 +627,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" customHeight="1" spans="2:8">
+    <row r="5" spans="1:8" ht="15" customHeight="1">
       <c r="B5" t="s">
         <v>9</v>
       </c>
@@ -1253,7 +641,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="2:8">
+    <row r="6" spans="1:8" ht="15" customHeight="1">
       <c r="B6" t="s">
         <v>10</v>
       </c>
@@ -1267,7 +655,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" customHeight="1" spans="2:8">
+    <row r="7" spans="1:8" ht="15" customHeight="1">
       <c r="B7" t="s">
         <v>12</v>
       </c>
@@ -1284,7 +672,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" customHeight="1" spans="2:8">
+    <row r="8" spans="1:8" ht="15" customHeight="1">
       <c r="B8" t="s">
         <v>15</v>
       </c>
@@ -1298,7 +686,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" customHeight="1" spans="2:8">
+    <row r="9" spans="1:8" ht="15" customHeight="1">
       <c r="B9" t="s">
         <v>17</v>
       </c>
@@ -1312,7 +700,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" customHeight="1" spans="2:8">
+    <row r="10" spans="1:8" ht="15" customHeight="1">
       <c r="B10" t="s">
         <v>18</v>
       </c>
@@ -1326,7 +714,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" customHeight="1" spans="2:8">
+    <row r="11" spans="1:8" ht="15" customHeight="1">
       <c r="B11" t="s">
         <v>19</v>
       </c>
@@ -1340,7 +728,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" customHeight="1" spans="2:8">
+    <row r="12" spans="1:8" ht="15" customHeight="1">
       <c r="B12" t="s">
         <v>20</v>
       </c>
@@ -1354,7 +742,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" customHeight="1" spans="2:8">
+    <row r="13" spans="1:8" ht="15" customHeight="1">
       <c r="B13" t="s">
         <v>22</v>
       </c>
@@ -1368,7 +756,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" customHeight="1" spans="2:8">
+    <row r="14" spans="1:8" ht="15" customHeight="1">
       <c r="B14" t="s">
         <v>24</v>
       </c>
@@ -1382,7 +770,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" customHeight="1" spans="2:8">
+    <row r="15" spans="1:8" ht="15" customHeight="1">
       <c r="B15" t="s">
         <v>25</v>
       </c>
@@ -1396,7 +784,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" customHeight="1" spans="2:8">
+    <row r="16" spans="1:8" ht="15" customHeight="1">
       <c r="B16" t="s">
         <v>27</v>
       </c>
@@ -1410,7 +798,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" customHeight="1" spans="2:8">
+    <row r="17" spans="1:8" ht="15" customHeight="1">
       <c r="B17" t="s">
         <v>28</v>
       </c>
@@ -1424,17 +812,17 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" customHeight="1" spans="1:1">
+    <row r="18" spans="1:8" ht="15" customHeight="1">
       <c r="A18" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="19" customHeight="1" spans="2:2">
+    <row r="19" spans="1:8" ht="15" customHeight="1">
       <c r="B19" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="20" customHeight="1" spans="3:8">
+    <row r="20" spans="1:8" ht="15" customHeight="1">
       <c r="C20" t="s">
         <v>18</v>
       </c>
@@ -1448,7 +836,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" customHeight="1" spans="3:8">
+    <row r="21" spans="1:8" ht="15" customHeight="1">
       <c r="C21" t="s">
         <v>15</v>
       </c>
@@ -1458,11 +846,11 @@
       <c r="G21" s="3">
         <v>43030</v>
       </c>
-      <c r="H21" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" customHeight="1" spans="3:8">
+      <c r="H21" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="15" customHeight="1">
       <c r="C22" t="s">
         <v>32</v>
       </c>
@@ -1473,10 +861,10 @@
         <v>43030</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" customHeight="1" spans="3:8">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15" customHeight="1">
       <c r="C23" t="s">
         <v>33</v>
       </c>
@@ -1490,12 +878,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" customHeight="1" spans="2:2">
+    <row r="24" spans="1:8" ht="15" customHeight="1">
       <c r="B24" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="25" customHeight="1" spans="3:8">
+    <row r="25" spans="1:8" ht="15" customHeight="1">
       <c r="C25" t="s">
         <v>35</v>
       </c>
@@ -1509,7 +897,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26" customHeight="1" spans="3:8">
+    <row r="26" spans="1:8" ht="15" customHeight="1">
       <c r="C26" t="s">
         <v>36</v>
       </c>
@@ -1523,7 +911,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" customHeight="1" spans="3:8">
+    <row r="27" spans="1:8" ht="15" customHeight="1">
       <c r="C27" t="s">
         <v>37</v>
       </c>
@@ -1537,7 +925,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="28" customHeight="1" spans="3:8">
+    <row r="28" spans="1:8" ht="15" customHeight="1">
       <c r="C28" t="s">
         <v>38</v>
       </c>
@@ -1551,7 +939,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="29" customHeight="1" spans="3:8">
+    <row r="29" spans="1:8" ht="15" customHeight="1">
       <c r="C29" t="s">
         <v>39</v>
       </c>
@@ -1565,7 +953,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="30" customHeight="1" spans="3:8">
+    <row r="30" spans="1:8" ht="15" customHeight="1">
       <c r="C30" t="s">
         <v>40</v>
       </c>
@@ -1579,7 +967,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="31" customHeight="1" spans="3:8">
+    <row r="31" spans="1:8" ht="15" customHeight="1">
       <c r="C31" t="s">
         <v>27</v>
       </c>
@@ -1593,7 +981,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" customHeight="1" spans="2:8">
+    <row r="32" spans="1:8" ht="15" customHeight="1">
       <c r="B32" t="s">
         <v>41</v>
       </c>
@@ -1606,11 +994,11 @@
       <c r="G32" s="3">
         <v>43027</v>
       </c>
-      <c r="H32" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="33" customHeight="1" spans="3:8">
+      <c r="H32" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="15" customHeight="1">
       <c r="C33" t="s">
         <v>9</v>
       </c>
@@ -1624,7 +1012,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="34" customHeight="1" spans="2:8">
+    <row r="34" spans="1:8" ht="15" customHeight="1">
       <c r="B34" t="s">
         <v>43</v>
       </c>
@@ -1641,7 +1029,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="35" customHeight="1" spans="3:8">
+    <row r="35" spans="1:8" ht="15" customHeight="1">
       <c r="C35" t="s">
         <v>45</v>
       </c>
@@ -1655,7 +1043,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="36" customHeight="1" spans="3:8">
+    <row r="36" spans="1:8" ht="15" customHeight="1">
       <c r="C36" t="s">
         <v>46</v>
       </c>
@@ -1669,7 +1057,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="37" customHeight="1" spans="1:1">
+    <row r="37" spans="1:8" ht="15" customHeight="1">
       <c r="A37" t="s">
         <v>47</v>
       </c>
@@ -1678,40 +1066,34 @@
   <mergeCells count="1">
     <mergeCell ref="B1:E1"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/document/唐晓东-CodeMan-理财精灵开发进度表.xlsx
+++ b/document/唐晓东-CodeMan-理财精灵开发进度表.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22944" windowHeight="9948"/>
   </bookViews>
@@ -151,54 +151,56 @@
     <t>理财管理模块</t>
   </si>
   <si>
+    <t>转出金额</t>
+  </si>
+  <si>
+    <t>转出金额查询</t>
+  </si>
+  <si>
+    <t>收益查询</t>
+  </si>
+  <si>
+    <t>统计报表查看</t>
+  </si>
+  <si>
+    <t>其他模块</t>
+  </si>
+  <si>
+    <t>登录</t>
+  </si>
+  <si>
+    <t>管理员模块</t>
+  </si>
+  <si>
+    <t>用户信息查看</t>
+  </si>
+  <si>
+    <t>用户信息删除</t>
+  </si>
+  <si>
+    <t>用户信息修改</t>
+  </si>
+  <si>
+    <t>里程碑:30</t>
+  </si>
+  <si>
+    <t>结束</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>转入金额查询</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>转入金额</t>
-  </si>
-  <si>
-    <t>转出金额</t>
-  </si>
-  <si>
-    <t>转出金额查询</t>
-  </si>
-  <si>
-    <t>收益查询</t>
-  </si>
-  <si>
-    <t>统计报表查看</t>
-  </si>
-  <si>
-    <t>其他模块</t>
-  </si>
-  <si>
-    <t>登录</t>
-  </si>
-  <si>
-    <t>管理员模块</t>
-  </si>
-  <si>
-    <t>用户信息查看</t>
-  </si>
-  <si>
-    <t>用户信息删除</t>
-  </si>
-  <si>
-    <t>用户信息修改</t>
-  </si>
-  <si>
-    <t>里程碑:30</t>
-  </si>
-  <si>
-    <t>结束</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -225,13 +227,35 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -246,7 +270,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -260,13 +284,35 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -568,20 +614,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I36" activeCellId="3" sqref="J33 I36 I36 H36:I36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="7" width="15.77734375" customWidth="1"/>
     <col min="8" max="8" width="29.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" customHeight="1">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -593,7 +639,7 @@
       <c r="E1" s="8"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -608,12 +654,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>6</v>
       </c>
@@ -627,7 +673,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15" customHeight="1">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>9</v>
       </c>
@@ -641,7 +687,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>10</v>
       </c>
@@ -655,7 +701,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15" customHeight="1">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>12</v>
       </c>
@@ -672,7 +718,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15" customHeight="1">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>15</v>
       </c>
@@ -686,7 +732,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15" customHeight="1">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>17</v>
       </c>
@@ -700,7 +746,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15" customHeight="1">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>18</v>
       </c>
@@ -714,7 +760,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>19</v>
       </c>
@@ -728,7 +774,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15" customHeight="1">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>20</v>
       </c>
@@ -742,7 +788,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15" customHeight="1">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>22</v>
       </c>
@@ -756,7 +802,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15" customHeight="1">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>24</v>
       </c>
@@ -770,59 +816,77 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15" customHeight="1">
-      <c r="B15" t="s">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F15" t="s">
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="10">
         <v>43029</v>
       </c>
-      <c r="H15" s="6" t="s">
+      <c r="H15" s="11" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" ht="15" customHeight="1">
-      <c r="B16" t="s">
+      <c r="I15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F16" t="s">
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G16" s="14">
         <v>43029</v>
       </c>
-      <c r="H16" s="6" t="s">
+      <c r="H16" s="15" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" ht="15" customHeight="1">
-      <c r="B17" t="s">
+      <c r="I16">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F17" t="s">
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G17" s="10">
         <v>43029</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="H17" s="12" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" ht="15" customHeight="1">
+      <c r="I17">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15" customHeight="1">
+    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15" customHeight="1">
+    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>18</v>
       </c>
@@ -835,8 +899,11 @@
       <c r="H20" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" ht="15" customHeight="1">
+      <c r="I20">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>15</v>
       </c>
@@ -846,11 +913,11 @@
       <c r="G21" s="3">
         <v>43030</v>
       </c>
-      <c r="H21" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="15" customHeight="1">
+      <c r="H21" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>32</v>
       </c>
@@ -861,10 +928,10 @@
         <v>43030</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="15" customHeight="1">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>33</v>
       </c>
@@ -877,15 +944,18 @@
       <c r="H23" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" ht="15" customHeight="1">
+      <c r="I23">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="15" customHeight="1">
-      <c r="C25" t="s">
-        <v>35</v>
+    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C25" s="16" t="s">
+        <v>47</v>
       </c>
       <c r="F25" t="s">
         <v>14</v>
@@ -896,10 +966,13 @@
       <c r="H25" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" ht="15" customHeight="1">
-      <c r="C26" t="s">
-        <v>36</v>
+      <c r="I25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C26" s="16" t="s">
+        <v>48</v>
       </c>
       <c r="F26" t="s">
         <v>14</v>
@@ -910,10 +983,13 @@
       <c r="H26" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" ht="15" customHeight="1">
+      <c r="I26">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F27" t="s">
         <v>11</v>
@@ -924,10 +1000,13 @@
       <c r="H27" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" ht="15" customHeight="1">
+      <c r="I27">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F28" t="s">
         <v>11</v>
@@ -938,55 +1017,73 @@
       <c r="H28" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" ht="15" customHeight="1">
-      <c r="C29" t="s">
+      <c r="I28">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C29" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G29" s="18">
+        <v>43030</v>
+      </c>
+      <c r="H29" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="I29">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C30" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="G30" s="18">
+        <v>43032</v>
+      </c>
+      <c r="H30" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="I30">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C31" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="G31" s="18">
+        <v>43032</v>
+      </c>
+      <c r="H31" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="I31">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
         <v>39</v>
       </c>
-      <c r="F29" t="s">
-        <v>16</v>
-      </c>
-      <c r="G29" s="3">
-        <v>43030</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="15" customHeight="1">
-      <c r="C30" t="s">
+      <c r="C32" t="s">
         <v>40</v>
-      </c>
-      <c r="F30" t="s">
-        <v>21</v>
-      </c>
-      <c r="G30" s="3">
-        <v>43032</v>
-      </c>
-      <c r="H30" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="15" customHeight="1">
-      <c r="C31" t="s">
-        <v>27</v>
-      </c>
-      <c r="F31" t="s">
-        <v>23</v>
-      </c>
-      <c r="G31" s="3">
-        <v>43032</v>
-      </c>
-      <c r="H31" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="15" customHeight="1">
-      <c r="B32" t="s">
-        <v>41</v>
-      </c>
-      <c r="C32" t="s">
-        <v>42</v>
       </c>
       <c r="F32" t="s">
         <v>7</v>
@@ -994,11 +1091,11 @@
       <c r="G32" s="3">
         <v>43027</v>
       </c>
-      <c r="H32" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="15" customHeight="1">
+      <c r="H32" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>9</v>
       </c>
@@ -1008,16 +1105,16 @@
       <c r="G33" s="3">
         <v>43027</v>
       </c>
-      <c r="H33" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="15" customHeight="1">
+      <c r="H33" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C34" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F34" t="s">
         <v>7</v>
@@ -1028,10 +1125,13 @@
       <c r="H34" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" ht="15" customHeight="1">
+      <c r="I34">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F35" t="s">
         <v>23</v>
@@ -1039,13 +1139,16 @@
       <c r="G35" s="3">
         <v>43030</v>
       </c>
-      <c r="H35" s="7" t="s">
+      <c r="H35" s="6" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" ht="15" customHeight="1">
+      <c r="I35">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F36" t="s">
         <v>7</v>
@@ -1053,13 +1156,16 @@
       <c r="G36" s="3">
         <v>43030</v>
       </c>
-      <c r="H36" s="7" t="s">
+      <c r="H36" s="6" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" ht="15" customHeight="1">
+      <c r="I36">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1068,17 +1174,17 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1086,12 +1192,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/document/唐晓东-CodeMan-理财精灵开发进度表.xlsx
+++ b/document/唐晓东-CodeMan-理财精灵开发进度表.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22944" windowHeight="9948"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17040" windowHeight="3768"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="51">
   <si>
     <t>产品</t>
   </si>
@@ -142,13 +143,13 @@
     <t>用户管理模块</t>
   </si>
   <si>
-    <t>银行卡添加</t>
-  </si>
-  <si>
-    <t>银行卡绑定</t>
-  </si>
-  <si>
     <t>理财管理模块</t>
+  </si>
+  <si>
+    <t>转入金额查询</t>
+  </si>
+  <si>
+    <t>转入金额</t>
   </si>
   <si>
     <t>转出金额</t>
@@ -188,11 +189,19 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>转入金额查询</t>
+    <t>结束</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>转入金额</t>
+    <t>结束</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>银行卡解绑</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>银行卡添加</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -200,7 +209,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -229,14 +238,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
@@ -244,18 +245,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -270,7 +265,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -284,45 +279,58 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -615,10 +623,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I36" activeCellId="3" sqref="J33 I36 I36 H36:I36"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -627,19 +635,19 @@
     <col min="8" max="8" width="29.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -654,12 +662,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>6</v>
       </c>
@@ -673,7 +681,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>9</v>
       </c>
@@ -687,7 +695,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>10</v>
       </c>
@@ -701,7 +709,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>12</v>
       </c>
@@ -718,7 +726,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>15</v>
       </c>
@@ -732,7 +740,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>17</v>
       </c>
@@ -746,7 +754,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>18</v>
       </c>
@@ -760,7 +768,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>19</v>
       </c>
@@ -774,7 +782,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>20</v>
       </c>
@@ -788,7 +796,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>22</v>
       </c>
@@ -802,7 +810,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>24</v>
       </c>
@@ -816,77 +824,59 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="9" t="s">
+    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9" t="s">
+      <c r="F15" t="s">
         <v>11</v>
       </c>
-      <c r="G15" s="10">
+      <c r="G15" s="3">
         <v>43029</v>
       </c>
-      <c r="H15" s="11" t="s">
+      <c r="H15" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="I15">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="13" t="s">
+    </row>
+    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13" t="s">
+      <c r="F16" t="s">
         <v>21</v>
       </c>
-      <c r="G16" s="14">
+      <c r="G16" s="3">
         <v>43029</v>
       </c>
-      <c r="H16" s="15" t="s">
+      <c r="H16" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="I16">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="9" t="s">
+    </row>
+    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9" t="s">
+      <c r="F17" t="s">
         <v>16</v>
       </c>
-      <c r="G17" s="10">
+      <c r="G17" s="3">
         <v>43029</v>
       </c>
-      <c r="H17" s="12" t="s">
+      <c r="H17" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I17">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>18</v>
       </c>
@@ -899,11 +889,8 @@
       <c r="H20" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I20">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>15</v>
       </c>
@@ -913,13 +900,13 @@
       <c r="G21" s="3">
         <v>43030</v>
       </c>
-      <c r="H21" s="6" t="s">
+      <c r="H21" s="7" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C22" t="s">
-        <v>32</v>
+    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C22" s="10" t="s">
+        <v>50</v>
       </c>
       <c r="F22" t="s">
         <v>23</v>
@@ -931,9 +918,9 @@
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="F23" t="s">
         <v>23</v>
@@ -944,18 +931,15 @@
       <c r="H23" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I23">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="16" t="s">
-        <v>47</v>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>33</v>
       </c>
       <c r="F25" t="s">
         <v>14</v>
@@ -966,13 +950,10 @@
       <c r="H25" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I25">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="16" t="s">
-        <v>48</v>
+    </row>
+    <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>34</v>
       </c>
       <c r="F26" t="s">
         <v>14</v>
@@ -983,11 +964,8 @@
       <c r="H26" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I26">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>35</v>
       </c>
@@ -1000,11 +978,8 @@
       <c r="H27" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I27">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>36</v>
       </c>
@@ -1017,68 +992,50 @@
       <c r="H28" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I28">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C29" s="17" t="s">
+    </row>
+    <row r="29" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
         <v>37</v>
       </c>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17" t="s">
+      <c r="F29" t="s">
         <v>16</v>
       </c>
-      <c r="G29" s="18">
+      <c r="G29" s="3">
         <v>43030</v>
       </c>
-      <c r="H29" s="19" t="s">
+      <c r="H29" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I29">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C30" s="17" t="s">
+    </row>
+    <row r="30" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
         <v>38</v>
       </c>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17" t="s">
+      <c r="F30" t="s">
         <v>21</v>
       </c>
-      <c r="G30" s="18">
+      <c r="G30" s="3">
         <v>43032</v>
       </c>
-      <c r="H30" s="20" t="s">
+      <c r="H30" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="I30">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C31" s="17" t="s">
+    </row>
+    <row r="31" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
         <v>27</v>
       </c>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17" t="s">
+      <c r="F31" t="s">
         <v>23</v>
       </c>
-      <c r="G31" s="18">
+      <c r="G31" s="3">
         <v>43032</v>
       </c>
-      <c r="H31" s="20" t="s">
+      <c r="H31" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="I31">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>39</v>
       </c>
@@ -1091,11 +1048,11 @@
       <c r="G32" s="3">
         <v>43027</v>
       </c>
-      <c r="H32" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H32" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>9</v>
       </c>
@@ -1105,11 +1062,11 @@
       <c r="G33" s="3">
         <v>43027</v>
       </c>
-      <c r="H33" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H33" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>41</v>
       </c>
@@ -1125,11 +1082,8 @@
       <c r="H34" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I34">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>43</v>
       </c>
@@ -1139,14 +1093,11 @@
       <c r="G35" s="3">
         <v>43030</v>
       </c>
-      <c r="H35" s="6" t="s">
+      <c r="H35" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="I35">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>44</v>
       </c>
@@ -1156,14 +1107,11 @@
       <c r="G36" s="3">
         <v>43030</v>
       </c>
-      <c r="H36" s="6" t="s">
+      <c r="H36" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="I36">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>45</v>
       </c>
@@ -1195,9 +1143,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>

--- a/document/唐晓东-CodeMan-理财精灵开发进度表.xlsx
+++ b/document/唐晓东-CodeMan-理财精灵开发进度表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17040" windowHeight="3768"/>
@@ -11,13 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="53">
   <si>
     <t>产品</t>
   </si>
@@ -204,12 +203,20 @@
     <t>银行卡添加</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>进行中</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -265,7 +272,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -291,6 +298,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -622,32 +632,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="7" width="15.77734375" customWidth="1"/>
     <col min="8" max="8" width="29.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15" customHeight="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="15" customHeight="1">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -662,12 +672,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="15" customHeight="1">
       <c r="A3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="15" customHeight="1">
       <c r="B4" t="s">
         <v>6</v>
       </c>
@@ -681,7 +691,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="15" customHeight="1">
       <c r="B5" t="s">
         <v>9</v>
       </c>
@@ -695,7 +705,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="15" customHeight="1">
       <c r="B6" t="s">
         <v>10</v>
       </c>
@@ -709,7 +719,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="15" customHeight="1">
       <c r="B7" t="s">
         <v>12</v>
       </c>
@@ -726,7 +736,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="15" customHeight="1">
       <c r="B8" t="s">
         <v>15</v>
       </c>
@@ -740,7 +750,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="15" customHeight="1">
       <c r="B9" t="s">
         <v>17</v>
       </c>
@@ -754,7 +764,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="15" customHeight="1">
       <c r="B10" t="s">
         <v>18</v>
       </c>
@@ -768,7 +778,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="15" customHeight="1">
       <c r="B11" t="s">
         <v>19</v>
       </c>
@@ -782,7 +792,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="15" customHeight="1">
       <c r="B12" t="s">
         <v>20</v>
       </c>
@@ -796,7 +806,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="15" customHeight="1">
       <c r="B13" t="s">
         <v>22</v>
       </c>
@@ -810,7 +820,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="15" customHeight="1">
       <c r="B14" t="s">
         <v>24</v>
       </c>
@@ -824,7 +834,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="15" customHeight="1">
       <c r="B15" t="s">
         <v>25</v>
       </c>
@@ -838,7 +848,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="15" customHeight="1">
       <c r="B16" t="s">
         <v>27</v>
       </c>
@@ -848,11 +858,11 @@
       <c r="G16" s="3">
         <v>43029</v>
       </c>
-      <c r="H16" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H16" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15" customHeight="1">
       <c r="B17" t="s">
         <v>28</v>
       </c>
@@ -866,17 +876,17 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="15" customHeight="1">
       <c r="A18" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="15" customHeight="1">
       <c r="B19" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="15" customHeight="1">
       <c r="C20" t="s">
         <v>18</v>
       </c>
@@ -886,11 +896,11 @@
       <c r="G20" s="3">
         <v>43030</v>
       </c>
-      <c r="H20" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H20" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15" customHeight="1">
       <c r="C21" t="s">
         <v>15</v>
       </c>
@@ -900,11 +910,11 @@
       <c r="G21" s="3">
         <v>43030</v>
       </c>
-      <c r="H21" s="7" t="s">
+      <c r="H21" s="4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="15" customHeight="1">
       <c r="C22" s="10" t="s">
         <v>50</v>
       </c>
@@ -918,7 +928,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="15" customHeight="1">
       <c r="C23" t="s">
         <v>49</v>
       </c>
@@ -928,16 +938,16 @@
       <c r="G23" s="3">
         <v>43030</v>
       </c>
-      <c r="H23" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H23" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15" customHeight="1">
       <c r="B24" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="15" customHeight="1">
       <c r="C25" t="s">
         <v>33</v>
       </c>
@@ -951,7 +961,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="15" customHeight="1">
       <c r="C26" t="s">
         <v>34</v>
       </c>
@@ -965,7 +975,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="15" customHeight="1">
       <c r="C27" t="s">
         <v>35</v>
       </c>
@@ -979,7 +989,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="15" customHeight="1">
       <c r="C28" t="s">
         <v>36</v>
       </c>
@@ -993,7 +1003,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="15" customHeight="1">
       <c r="C29" t="s">
         <v>37</v>
       </c>
@@ -1007,7 +1017,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="15" customHeight="1">
       <c r="C30" t="s">
         <v>38</v>
       </c>
@@ -1021,7 +1031,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="15" customHeight="1">
       <c r="C31" t="s">
         <v>27</v>
       </c>
@@ -1031,11 +1041,11 @@
       <c r="G31" s="3">
         <v>43032</v>
       </c>
-      <c r="H31" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H31" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="15" customHeight="1">
       <c r="B32" t="s">
         <v>39</v>
       </c>
@@ -1052,7 +1062,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="15" customHeight="1">
       <c r="C33" t="s">
         <v>9</v>
       </c>
@@ -1066,7 +1076,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="15" customHeight="1">
       <c r="B34" t="s">
         <v>41</v>
       </c>
@@ -1079,11 +1089,11 @@
       <c r="G34" s="3">
         <v>43030</v>
       </c>
-      <c r="H34" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H34" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="15" customHeight="1">
       <c r="C35" t="s">
         <v>43</v>
       </c>
@@ -1097,7 +1107,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="15" customHeight="1">
       <c r="C36" t="s">
         <v>44</v>
       </c>
@@ -1107,11 +1117,11 @@
       <c r="G36" s="3">
         <v>43030</v>
       </c>
-      <c r="H36" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H36" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="15" customHeight="1">
       <c r="A37" t="s">
         <v>45</v>
       </c>
@@ -1127,12 +1137,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1140,12 +1150,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
